--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T10:50:09+00:00</t>
+    <t>2025-06-08T18:16:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Lorsque le corps du CDA est structuré, la métadonnée 'formatCode' provient de l'élément 'templateId' (modèle du document CDA). La correspondance entre templateId et formatCode est assurée par cette table d'association</t>
+    <t>Pour le document CDA, la métadonnée XDS 'formatCode' est calculé à partir de l'élement CDA 'templateId'. La correspondance entre templateId et formatCode est assurée par cette table d'association.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-08T18:16:56+00:00</t>
+    <t>2025-07-02T12:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:47:09+00:00</t>
+    <t>2025-07-30T08:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:19:15+00:00</t>
+    <t>2025-10-02T12:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:01:06+00:00</t>
+    <t>2025-11-03T13:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A11-CorresModeleCDA-XdsFormatCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:53:01+00:00</t>
+    <t>2025-12-19T16:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV-ModeleDocumentCDA</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-modele-document-cda-cisis</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
   </si>
   <si>
     <t>Display</t>
@@ -107,16 +113,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R220-ModeleDocumentCDAStructure/FHIR/TRE-R220-ModeleDocumentCDAStructure</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R220-ModeleDocumentCDAStructure/FHIR/TRE-R220-ModeleDocumentCDAStructure|20251029120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A06-FormatCodeComplementaire/FHIR/TRE-A06-FormatCodeComplementaire</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A06-FormatCodeComplementaire/FHIR/TRE-A06-FormatCodeComplementaire|20251029120000</t>
   </si>
   <si>
     <t>1.2.250.1.213.1.1.1.5.1</t>
@@ -158,12 +161,6 @@
     <t>urn:asip:ci-sis:idap:2011</t>
   </si>
   <si>
-    <t>1.2.250.1.213.1.1.1.10</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:cva:2017</t>
-  </si>
-  <si>
     <t>1.2.250.1.213.1.1.1.12.1</t>
   </si>
   <si>
@@ -254,12 +251,6 @@
     <t>urn:asip:ci-sis:ppv:2009</t>
   </si>
   <si>
-    <t>1.2.250.1.213.1.1.1.20</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:pps-paerpa:2017</t>
-  </si>
-  <si>
     <t>1.2.250.1.213.1.1.1.21</t>
   </si>
   <si>
@@ -368,24 +359,6 @@
     <t>urn:ans:ci-sis:img-da:2022</t>
   </si>
   <si>
-    <t>1.2.250.1.213.1.1.1.48</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:dlu-dlu-dom:2022</t>
-  </si>
-  <si>
-    <t>1.2.250.1.213.1.1.1.49</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:dlu-fludt-dom:2022</t>
-  </si>
-  <si>
-    <t>1.2.250.1.213.1.1.1.50</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:dlu-fludr-dom:2022</t>
-  </si>
-  <si>
     <t>1.2.250.1.213.1.1.1.52</t>
   </si>
   <si>
@@ -404,7 +377,25 @@
     <t>urn:asip:ci-sis:ppp:2023</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A11-IheFormatCode/FHIR/TRE-A11-IheFormatCode</t>
+    <t>1.2.250.1.213.1.1.1.59</t>
+  </si>
+  <si>
+    <t>urn:ans:ci-sis:trod:2024</t>
+  </si>
+  <si>
+    <t>1.2.250.1.213.1.1.1.61</t>
+  </si>
+  <si>
+    <t>urn:asip:ci-sis:ft-su:2024</t>
+  </si>
+  <si>
+    <t>1.2.250.1.213.1.1.1.62</t>
+  </si>
+  <si>
+    <t>urn:asip:ci-sis:fr-su:2024</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A11-IheFormatCode/FHIR/TRE-A11-IheFormatCode|20240426120000</t>
   </si>
   <si>
     <t>1.2.250.1.213.1.1.1.39</t>
@@ -584,7 +575,7 @@
     <t>urn:ihe:pat:apsr:larynx:2010</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R221-ModeleDocumentCDANonStructure/FHIR/TRE-R221-ModeleDocumentCDANonStructure</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R221-ModeleDocumentCDANonStructure/FHIR/TRE-R221-ModeleDocumentCDANonStructure|20251222120000</t>
   </si>
   <si>
     <t>1.3.6.1.4.1.19376.1.2.20</t>
@@ -739,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -865,6 +856,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -872,7 +871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -883,645 +882,619 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>30</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="E49" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1541,435 +1514,435 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>30</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1991,97 +1964,97 @@
         <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>30</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2"/>
     </row>
